--- a/员工交易监测_20200507/20200518/AML/WebContent/WEB-INF/classes/AStaffAcctTradMRRB.xlsx
+++ b/员工交易监测_20200507/20200518/AML/WebContent/WEB-INF/classes/AStaffAcctTradMRRB.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>客户号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分行号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>员工编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分行号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客户住址/经营地址 (C1,C2,C3,P1,P2,P3,W1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,6 +234,10 @@
   </si>
   <si>
     <t>银行卡号码</t>
+  </si>
+  <si>
+    <t>机构号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -667,9 +663,9 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="6" max="6" width="17.625" customWidth="1"/>
     <col min="7" max="7" width="28.625" bestFit="1" customWidth="1"/>
@@ -707,7 +703,7 @@
         <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -725,13 +721,13 @@
         <v>3</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>7</v>
@@ -773,19 +769,19 @@
         <v>14</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="AB1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="AD1" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +817,7 @@
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="17.125" customWidth="1"/>
@@ -857,7 +853,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>19</v>
@@ -866,22 +862,22 @@
         <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>38</v>
@@ -890,22 +886,22 @@
         <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>21</v>
@@ -923,7 +919,7 @@
         <v>25</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>26</v>
@@ -938,7 +934,7 @@
         <v>29</v>
       </c>
       <c r="AB1" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>30</v>

--- a/员工交易监测_20200507/20200518/AML/WebContent/WEB-INF/classes/AStaffAcctTradMRRB.xlsx
+++ b/员工交易监测_20200507/20200518/AML/WebContent/WEB-INF/classes/AStaffAcctTradMRRB.xlsx
@@ -123,9 +123,6 @@
     <t>币种</t>
   </si>
   <si>
-    <t>交易金额</t>
-  </si>
-  <si>
     <t>对方金融机构网点名称</t>
   </si>
   <si>
@@ -237,6 +234,10 @@
   </si>
   <si>
     <t>机构号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易金额（元）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,9 +245,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -273,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,12 +283,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,15 +326,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -348,10 +334,28 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -662,130 +666,130 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-    <col min="7" max="7" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.625" customWidth="1"/>
-    <col min="10" max="10" width="16.25" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="16.125" customWidth="1"/>
-    <col min="13" max="14" width="12.625" customWidth="1"/>
-    <col min="15" max="15" width="33.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="16.25" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="15.25" customWidth="1"/>
-    <col min="20" max="20" width="16.5" customWidth="1"/>
-    <col min="21" max="21" width="18.625" customWidth="1"/>
-    <col min="22" max="22" width="12.375" customWidth="1"/>
-    <col min="23" max="23" width="29.75" customWidth="1"/>
-    <col min="24" max="24" width="15.625" customWidth="1"/>
-    <col min="25" max="25" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="41.375" customWidth="1"/>
-    <col min="27" max="27" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.125" customWidth="1"/>
-    <col min="29" max="29" width="20.625" customWidth="1"/>
-    <col min="30" max="30" width="16.25" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="28.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="16.25" style="8" customWidth="1"/>
+    <col min="11" max="11" width="16" style="8" customWidth="1"/>
+    <col min="12" max="12" width="16.125" style="8" customWidth="1"/>
+    <col min="13" max="14" width="12.625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="33.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16.25" style="8" customWidth="1"/>
+    <col min="18" max="18" width="17" style="8" customWidth="1"/>
+    <col min="19" max="19" width="15.25" style="8" customWidth="1"/>
+    <col min="20" max="20" width="16.5" style="8" customWidth="1"/>
+    <col min="21" max="21" width="18.625" style="8" customWidth="1"/>
+    <col min="22" max="22" width="12.375" style="8" customWidth="1"/>
+    <col min="23" max="23" width="29.75" style="8" customWidth="1"/>
+    <col min="24" max="24" width="15.625" style="8" customWidth="1"/>
+    <col min="25" max="25" width="27.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="41.375" style="8" customWidth="1"/>
+    <col min="27" max="27" width="29.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.125" style="8" customWidth="1"/>
+    <col min="29" max="29" width="20.625" style="8" customWidth="1"/>
+    <col min="30" max="30" width="16.25" style="8" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="A1:A1048576 C1:C1048576 D1:D1048576 E1:E1048576 F1:F1048576 G1:G1048576 H1:H1048576 I1:I1048576 K1:K1048576 L1:L1048576 N1:N1048576 O1:O1048576 R1:R1048576 S1:S1048576 T1:T1048576 U1:U1048576 V1:V1048576 W1:W1048576 X1:X1048576 Y1:Y1048576 Z1:Z1048576 AA1:AA1048576 AB1:AB1048576 AC1:AC1048576" name="区域1"/>
   </protectedRanges>
@@ -839,69 +843,69 @@
     <col min="23" max="23" width="24.125" customWidth="1"/>
     <col min="24" max="24" width="14" customWidth="1"/>
     <col min="25" max="25" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.625" customWidth="1"/>
-    <col min="28" max="28" width="11.875" customWidth="1"/>
-    <col min="29" max="29" width="13.625" customWidth="1"/>
-    <col min="30" max="30" width="13.5" customWidth="1"/>
+    <col min="26" max="26" width="14.875" customWidth="1"/>
+    <col min="27" max="27" width="16.625" style="11" customWidth="1"/>
+    <col min="28" max="28" width="25.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="23.125" customWidth="1"/>
     <col min="32" max="32" width="21.75" customWidth="1"/>
-    <col min="33" max="33" width="26.5" customWidth="1"/>
-    <col min="34" max="34" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19" customWidth="1"/>
+    <col min="34" max="34" width="17" customWidth="1"/>
     <col min="35" max="35" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>21</v>
@@ -919,7 +923,7 @@
         <v>25</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>26</v>
@@ -930,32 +934,32 @@
       <c r="Z1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
